--- a/PIC/R/OutputFields.description.xlsx
+++ b/PIC/R/OutputFields.description.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenthahaut/Github/Public/PIC/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D960A0B-C0A3-224F-A70B-A367D8DBC4FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED157414-CAEB-F349-97D5-65DE34485DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="37360" windowHeight="17440" activeTab="1" xr2:uid="{6F4D8AF8-352B-CC4F-BBF3-5F62CE1B0F91}"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="37360" windowHeight="17440" activeTab="3" xr2:uid="{6F4D8AF8-352B-CC4F-BBF3-5F62CE1B0F91}"/>
   </bookViews>
   <sheets>
-    <sheet name="FIELDS" sheetId="1" r:id="rId1"/>
-    <sheet name="EXAMPLE" sheetId="2" r:id="rId2"/>
+    <sheet name="FIELDS IS TABLE" sheetId="1" r:id="rId1"/>
+    <sheet name="EXAMPLE IS TABLE" sheetId="2" r:id="rId2"/>
+    <sheet name="FIELDS STATISTICS" sheetId="3" r:id="rId3"/>
+    <sheet name="EXAMPLE STATISTICS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="194">
   <si>
     <t>chr</t>
   </si>
@@ -506,6 +508,108 @@
   </si>
   <si>
     <t>genic</t>
+  </si>
+  <si>
+    <t>totPureFilteredVirus3</t>
+  </si>
+  <si>
+    <t>Number of non PCR-duplicated reads mapping ONLY to the provirus, 3'LTR</t>
+  </si>
+  <si>
+    <t>totPureFilteredVirus5</t>
+  </si>
+  <si>
+    <t>Number of non PCR-duplicated reads mapping ONLY to the provirus, 5'LTR</t>
+  </si>
+  <si>
+    <t>totPureRawVirus3</t>
+  </si>
+  <si>
+    <t>Number of reads mapping ONLY to the provirus, 3'LTR</t>
+  </si>
+  <si>
+    <t>totPureRawVirus5</t>
+  </si>
+  <si>
+    <t>Number of reads mapping ONLY to the provirus, 5'LTR</t>
+  </si>
+  <si>
+    <t>totRead</t>
+  </si>
+  <si>
+    <t>Total number of reads or sequencing depth</t>
+  </si>
+  <si>
+    <t>totReadFilt3LTR</t>
+  </si>
+  <si>
+    <t>Number of non PCR-duplicated reads mapping supporting the IS, 3'LTR</t>
+  </si>
+  <si>
+    <t>totReadFilt5LTR</t>
+  </si>
+  <si>
+    <t>Number of non PCR-duplicated reads mapping supporting the IS, 5'LTR</t>
+  </si>
+  <si>
+    <t>totReadFiltLTR</t>
+  </si>
+  <si>
+    <t>Number of non PCR-duplicated reads mapping supporting the IS, max(5'LTR, 3'LTR)</t>
+  </si>
+  <si>
+    <t>totReadRaw3LTR</t>
+  </si>
+  <si>
+    <t>Number of reads mapping supporting the IS, 3'LTR</t>
+  </si>
+  <si>
+    <t>totReadRaw5LTR</t>
+  </si>
+  <si>
+    <t>Number of reads mapping supporting the IS, 5'LTR</t>
+  </si>
+  <si>
+    <t>totReadRawLTR</t>
+  </si>
+  <si>
+    <t>Number of reads mapping supporting the IS, max(5'LTR, 3'LTR)</t>
+  </si>
+  <si>
+    <t>NumberIS_LTR3</t>
+  </si>
+  <si>
+    <t>Number of IS supported only by reads mapping to the 3'LTR</t>
+  </si>
+  <si>
+    <t>NumberIS_LTR5</t>
+  </si>
+  <si>
+    <t>Number of IS supported only by reads mapping to the 5'LTR</t>
+  </si>
+  <si>
+    <t>NumberIS_LTR5LTR3</t>
+  </si>
+  <si>
+    <t>Number of IS supported by reads at both LTRs</t>
+  </si>
+  <si>
+    <t>ABUNDANCE</t>
+  </si>
+  <si>
+    <t>CLONE %</t>
+  </si>
+  <si>
+    <t>RECALL</t>
+  </si>
+  <si>
+    <t>ANNOTATION</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>values</t>
   </si>
 </sst>
 </file>
@@ -541,10 +645,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,12 +972,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFD72F0-3F20-8546-BA80-DD13DEFB9C80}">
   <dimension ref="A2:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="213" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A29" zoomScale="213" workbookViewId="0">
+      <selection activeCell="B33" sqref="A2:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -878,489 +986,540 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B33:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1370,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68119AF-CEB4-7641-935F-88F57BD30745}">
   <dimension ref="A1:AP7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
@@ -2275,4 +2434,282 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAB6828-27D2-E848-83CC-DA508AF4C777}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDFF657-5F7B-F646-997A-56E39A66415F}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>17339</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6543</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>53120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11363</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>162270</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4056</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>26821</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6375</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>26859</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>